--- a/output/fit_clients/fit_round_150.xlsx
+++ b/output/fit_clients/fit_round_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2022401037.846718</v>
+        <v>2397967555.563449</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1099774644482408</v>
+        <v>0.09974958392083669</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02825912236806373</v>
+        <v>0.03890803079377907</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1011200517.514821</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2288811750.04617</v>
+        <v>1618381152.584536</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570976085048291</v>
+        <v>0.1210874002496674</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05055846589615479</v>
+        <v>0.03042786216877456</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1144405959.770959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3821009934.401227</v>
+        <v>3662998283.196155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1301056981318355</v>
+        <v>0.1283202772075203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.035862575663565</v>
+        <v>0.02497857318741796</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1910504968.665709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3351665404.878012</v>
+        <v>2562733077.345811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1072508308560467</v>
+        <v>0.1061091426770239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0489558139229929</v>
+        <v>0.04177436808592894</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1675832749.011269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2304182350.275859</v>
+        <v>1903475504.6612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1451715695081395</v>
+        <v>0.1274739506742506</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04300980209209462</v>
+        <v>0.05193290830479533</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1152091171.765919</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2165071942.896575</v>
+        <v>1948314965.675312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07796698744101543</v>
+        <v>0.09813747169669215</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03294392681528374</v>
+        <v>0.04931208091502723</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1082536016.665277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3695365461.411999</v>
+        <v>3859134700.021836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1978486078153312</v>
+        <v>0.199075850322814</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03193514291392093</v>
+        <v>0.02529598564333425</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1847682859.269486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1875024798.219963</v>
+        <v>1577067449.42231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1786122917510689</v>
+        <v>0.1284453330987883</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02908121207284797</v>
+        <v>0.0325843307540702</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>937512443.0051012</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3827744361.339272</v>
+        <v>5149163801.828417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1703639664101683</v>
+        <v>0.1976533734283812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03420385763954422</v>
+        <v>0.04585910399730017</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>63</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1913872189.179419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3410560602.392189</v>
+        <v>3806009551.952093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1359331950081393</v>
+        <v>0.1715778182583295</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04774105439174282</v>
+        <v>0.03850021598520408</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1705280272.774376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2298608378.625434</v>
+        <v>2754135177.094543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1579169867154488</v>
+        <v>0.1220129801658811</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03293197563194996</v>
+        <v>0.05212559880304021</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>52</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1149304143.074174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5262374130.531507</v>
+        <v>4272909465.391653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08217204133638002</v>
+        <v>0.09366615309525564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01916063144536259</v>
+        <v>0.02044474990594526</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>50</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2631187056.024899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3477476078.630043</v>
+        <v>3061773618.681144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1334324019264334</v>
+        <v>0.1480896754219052</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03281944018116776</v>
+        <v>0.04042414760307653</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1738738039.139422</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1563739910.852876</v>
+        <v>1480377467.266444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0690434365273683</v>
+        <v>0.1048629428771443</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04761262664095885</v>
+        <v>0.03144664778352747</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>781870055.3399678</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1824758593.98604</v>
+        <v>2324038794.985009</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1017229988214864</v>
+        <v>0.09445188660932613</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03179669534637419</v>
+        <v>0.04308296268146718</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>912379388.1079352</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3401162280.018335</v>
+        <v>3603191514.039171</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1644905686914652</v>
+        <v>0.1543260795091195</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04703847185268871</v>
+        <v>0.03752609479844695</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1700581204.193146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3446753027.350611</v>
+        <v>2584744062.479763</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1482460167009919</v>
+        <v>0.1661973643064726</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02177793896741267</v>
+        <v>0.03360952174547998</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1723376511.513024</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1206546986.058281</v>
+        <v>1185933288.146824</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1705485335592389</v>
+        <v>0.1353289766180136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02655995407495932</v>
+        <v>0.02696862100705555</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>603273572.4879017</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2725255009.786824</v>
+        <v>2013617876.627187</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0986503447898899</v>
+        <v>0.1291852633353628</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02189044987926905</v>
+        <v>0.03074124676752716</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>23</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1362627453.93337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2153804629.535284</v>
+        <v>1899923509.376549</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06624330711617521</v>
+        <v>0.07408710410227783</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03871791407293456</v>
+        <v>0.04098039344795153</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1076902335.941772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3150968344.624645</v>
+        <v>2649832964.019991</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221587146213513</v>
+        <v>0.1209529609802956</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03527421368031659</v>
+        <v>0.03869729026423986</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1575484224.767043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1185076540.305683</v>
+        <v>996300549.1300129</v>
       </c>
       <c r="F23" t="n">
-        <v>0.138837707664447</v>
+        <v>0.1790453138236012</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04245863222988551</v>
+        <v>0.05124636407303194</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592538309.1230471</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3062799143.742959</v>
+        <v>4142208101.939357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1224904612373661</v>
+        <v>0.1230832961235194</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03456546130516646</v>
+        <v>0.02471132881046158</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1531399602.827439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396552701.989619</v>
+        <v>1308041618.906046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1118319754550661</v>
+        <v>0.1155060314342172</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01875698985377188</v>
+        <v>0.019882624315754</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>698276323.7132465</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1147849410.105166</v>
+        <v>1105627431.63293</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1081737228720361</v>
+        <v>0.1231255939442419</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03876345940898355</v>
+        <v>0.02908373468670247</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>573924713.2574928</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4134357866.991628</v>
+        <v>2865116238.496995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1078488452954369</v>
+        <v>0.1037215360878036</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02285788770564263</v>
+        <v>0.02358136740355485</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2067178936.936967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2919553057.515966</v>
+        <v>3476898706.958834</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421381443892911</v>
+        <v>0.139265552444916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03455824222992791</v>
+        <v>0.03862815903777397</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>48</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1459776532.962706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3756586571.792272</v>
+        <v>3683193726.267483</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1092819016803356</v>
+        <v>0.1457115100615667</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03680848215409499</v>
+        <v>0.04335858671173988</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>69</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1878293319.57932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1978362051.443624</v>
+        <v>1514446678.660927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.107008150557719</v>
+        <v>0.1113332690751266</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03755377411333685</v>
+        <v>0.03391272737423342</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>989181060.6569055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>998141729.9381242</v>
+        <v>977656608.6172833</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0961808909052559</v>
+        <v>0.1076323006038569</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04962230366692533</v>
+        <v>0.04826156966489906</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>499070863.9089103</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666009101.376628</v>
+        <v>1849325582.273532</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09791343377464644</v>
+        <v>0.08995825871411497</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02677958946956763</v>
+        <v>0.03014471623808482</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>833004653.3949815</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2179450563.135143</v>
+        <v>2052967493.439047</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1343396389824289</v>
+        <v>0.1602175390163083</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04850007699792234</v>
+        <v>0.04598042723223232</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>45</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1089725347.026248</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1494800109.289659</v>
+        <v>1114941864.820125</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1164731013690343</v>
+        <v>0.1110662847760715</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0185904232221166</v>
+        <v>0.02582810667085772</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>747400011.2833576</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>844102225.5460743</v>
+        <v>1332231624.218555</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1061847888427749</v>
+        <v>0.1101418155641473</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02882137103488204</v>
+        <v>0.0315699933335773</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>422051165.5133057</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2675858274.224712</v>
+        <v>3194173001.932174</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1459862874348603</v>
+        <v>0.1545945044843409</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02129267601851999</v>
+        <v>0.02632609473877443</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>38</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1337929144.961543</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2702602208.431724</v>
+        <v>2673651151.472854</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08996912082308862</v>
+        <v>0.07726388061654856</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03838294024977493</v>
+        <v>0.03267862292283313</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>40</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1351301228.138716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2099740556.367403</v>
+        <v>2108107129.961226</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1082063873996396</v>
+        <v>0.111030541635132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02652295525680629</v>
+        <v>0.02947036478185166</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1049870242.68483</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1879051904.867465</v>
+        <v>1538527452.826429</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1310252622380351</v>
+        <v>0.1540620080404242</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02544075238342984</v>
+        <v>0.02106983196011924</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>939525965.2890863</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1219680978.741173</v>
+        <v>1569035450.146925</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1172194766347706</v>
+        <v>0.12811807776927</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03641958483093528</v>
+        <v>0.05833050932746237</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>609840525.681926</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2386042929.427999</v>
+        <v>1975885226.902157</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1217584524628384</v>
+        <v>0.1105558496807758</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03223831285982566</v>
+        <v>0.03130764083063026</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1193021501.07943</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3667438623.268141</v>
+        <v>3494247039.315402</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1036778917753852</v>
+        <v>0.1006903754089851</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04459725613675079</v>
+        <v>0.02924605008578234</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1833719317.968716</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3085832800.656989</v>
+        <v>1966370535.245308</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1610637246002364</v>
+        <v>0.1345906806503301</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02052069098428136</v>
+        <v>0.02569292904738099</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>50</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1542916390.045099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2247337302.263159</v>
+        <v>1805125471.232388</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09508091302154341</v>
+        <v>0.06224697382823756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02863152208963268</v>
+        <v>0.02413278192942721</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1123668806.787204</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2483035999.323719</v>
+        <v>2325525972.16937</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1451115889151073</v>
+        <v>0.1497836757011315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05175584327885036</v>
+        <v>0.0379320693779853</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1241518039.140383</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3475858744.600135</v>
+        <v>4704958176.422903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.128402022041415</v>
+        <v>0.1085371940902258</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05414511185192079</v>
+        <v>0.05834734299921254</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>53</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1737929311.777883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3226053680.079125</v>
+        <v>4195150867.111307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1929415222015807</v>
+        <v>0.128301965318921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05446880610467311</v>
+        <v>0.04235919883718998</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>40</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1613026795.268353</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4704275970.489101</v>
+        <v>2926946094.104791</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08546376225211563</v>
+        <v>0.1063883072416416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02854725010456341</v>
+        <v>0.03922995552146434</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>49</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2352137978.650919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1366329887.920316</v>
+        <v>1240987990.976986</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1344741256872433</v>
+        <v>0.1404499439766677</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03095461305578521</v>
+        <v>0.03857597342661691</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>683164996.7136819</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3399571079.326526</v>
+        <v>3831881382.175144</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1137213933517366</v>
+        <v>0.1491382474021144</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03511163325500418</v>
+        <v>0.03651142071261167</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>51</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1699785571.023418</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1355239168.937912</v>
+        <v>1022584204.021384</v>
       </c>
       <c r="F51" t="n">
-        <v>0.181247315932804</v>
+        <v>0.1312968968503844</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03739646045078816</v>
+        <v>0.05239602015233887</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>677619610.8228627</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4072614964.288772</v>
+        <v>5232701205.828031</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1008858968354663</v>
+        <v>0.1193669609960923</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04492977596177697</v>
+        <v>0.04314871798441503</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>62</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2036307534.309815</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3185399029.822321</v>
+        <v>3493131695.828571</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1585053642911652</v>
+        <v>0.172672064449925</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03529015278248622</v>
+        <v>0.02592781883575727</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>43</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1592699534.536222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4433507268.638851</v>
+        <v>4859141506.47928</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1566357022568909</v>
+        <v>0.1380103661534925</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03267629052333176</v>
+        <v>0.03995908511982114</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2216753732.37422</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4226857163.983165</v>
+        <v>4054051209.919249</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1991943470998881</v>
+        <v>0.1688780777745702</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02801356768667179</v>
+        <v>0.02312384958692097</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>41</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2113428566.874207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1538958921.431639</v>
+        <v>1194138631.972835</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1499772263212799</v>
+        <v>0.1432194808012636</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04671717573405754</v>
+        <v>0.03932527591464464</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>769479497.1363411</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4386987684.171732</v>
+        <v>2827684972.631013</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1611876627478971</v>
+        <v>0.1358655554829508</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01732196239204412</v>
+        <v>0.01930849770986056</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>48</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2193493962.900455</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1521788346.922027</v>
+        <v>1722769709.759595</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1273717639601312</v>
+        <v>0.1615708896601926</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02903451308216898</v>
+        <v>0.03242338305766058</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>760894202.5798018</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4431476943.434999</v>
+        <v>4405678781.072598</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1022111642301143</v>
+        <v>0.1202171883227791</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03526521981641783</v>
+        <v>0.04362462618050302</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>41</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2215738426.795764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3511682795.977203</v>
+        <v>3108034440.486827</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1906782021978684</v>
+        <v>0.1487685324818679</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03048325591872477</v>
+        <v>0.02800412229919989</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1755841521.959674</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2510580432.014007</v>
+        <v>2310970276.766858</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1340463587403299</v>
+        <v>0.1160810199261708</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0259975993590367</v>
+        <v>0.03088306899450256</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1255290242.588375</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1308596284.031384</v>
+        <v>1491862168.101478</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1842881459903833</v>
+        <v>0.1437503149183485</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04306744782586711</v>
+        <v>0.04719507441424003</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>654298096.3306243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3446791401.868051</v>
+        <v>4370080102.988783</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07395329211452889</v>
+        <v>0.09612260647444176</v>
       </c>
       <c r="G63" t="n">
-        <v>0.035772272737397</v>
+        <v>0.04229365745613338</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1723395787.989034</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5014504649.361103</v>
+        <v>4018959513.163591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1249172898941247</v>
+        <v>0.1157845640766411</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0231196271926061</v>
+        <v>0.03168962658951852</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>47</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2507252431.864711</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4598660620.513022</v>
+        <v>5522260958.733263</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1161788415721413</v>
+        <v>0.1410829623508565</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02637126637541598</v>
+        <v>0.02935536900242532</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>54</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2299330293.084823</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3632256620.773536</v>
+        <v>5459853081.943007</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1352417509658038</v>
+        <v>0.1069507246326474</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04106063954427916</v>
+        <v>0.03476000559438985</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>44</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1816128264.228388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2636610010.810234</v>
+        <v>3355330763.434894</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07690053643051487</v>
+        <v>0.06309450561305026</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03708536171279839</v>
+        <v>0.04848810314357131</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>48</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1318305054.426184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5479096332.162607</v>
+        <v>4365063451.814483</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1488476121570532</v>
+        <v>0.125451279237985</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04794833351021213</v>
+        <v>0.04271703272939748</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>48</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2739548251.459739</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1554077368.911032</v>
+        <v>2373352944.957045</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1440566905984661</v>
+        <v>0.1542405265299806</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05244958406173257</v>
+        <v>0.05365665801265709</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>777038631.7049758</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3461349830.725246</v>
+        <v>2985548774.675671</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06588056017926083</v>
+        <v>0.08898006276725516</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0314757490040071</v>
+        <v>0.03366238888298482</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>43</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1730674922.31352</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5253740757.747078</v>
+        <v>5335818747.866567</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1260758493838304</v>
+        <v>0.1400956461242992</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0316374210640098</v>
+        <v>0.02329350938149889</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>55</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2626870503.473601</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2105230390.663834</v>
+        <v>1455790323.692654</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06960925283775929</v>
+        <v>0.1001133689149115</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03508277463779244</v>
+        <v>0.03769398036731681</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1052615124.681061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2544123772.337569</v>
+        <v>3475747057.046237</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07179332047259278</v>
+        <v>0.07701916055857186</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03495872410976129</v>
+        <v>0.04628770964251507</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1272061923.834872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2997312826.299223</v>
+        <v>3390878437.850467</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1720700232942514</v>
+        <v>0.1652055403981041</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02230062947600838</v>
+        <v>0.02210698884494039</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>51</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1498656478.737969</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2080018807.692276</v>
+        <v>1908588612.926043</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1106806231552588</v>
+        <v>0.1199106781872731</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02715698430975926</v>
+        <v>0.03783925505671482</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1040009360.444845</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4796592407.206895</v>
+        <v>3505262815.327251</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09070339344662326</v>
+        <v>0.1139806467664362</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02464038297789791</v>
+        <v>0.02615277811422922</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2398296221.70038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1918787561.909059</v>
+        <v>1918198865.195156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1280847047185242</v>
+        <v>0.1698180322195952</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02650299642472206</v>
+        <v>0.02206672259109257</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>959393830.4236106</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4430228020.044699</v>
+        <v>3887875003.383219</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1231302495772087</v>
+        <v>0.1159480507343854</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05561743288218115</v>
+        <v>0.05476639586496009</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>52</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2215113944.93803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1230775261.394258</v>
+        <v>1280590203.125702</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1282880427377143</v>
+        <v>0.142826761115499</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03208606598527215</v>
+        <v>0.02583037904785181</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>615387617.744575</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3979630225.357766</v>
+        <v>3982404446.456594</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09212204675939602</v>
+        <v>0.07965577867624432</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02666662297442899</v>
+        <v>0.03523713116641797</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>31</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1989815111.093076</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3453565996.290273</v>
+        <v>4384516502.466395</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1120796256913249</v>
+        <v>0.09175565879549692</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02568661278721881</v>
+        <v>0.03157461026042079</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1726782940.996216</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4632651982.999872</v>
+        <v>4536409925.479704</v>
       </c>
       <c r="F82" t="n">
-        <v>0.141428224192765</v>
+        <v>0.198210629824738</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01846598846034022</v>
+        <v>0.02251819560374736</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2316325995.92113</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1979597764.578463</v>
+        <v>2133581788.762385</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1076679651808782</v>
+        <v>0.09870748628007601</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03218805341582167</v>
+        <v>0.02778847876833074</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>989798865.0220704</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2248533752.997384</v>
+        <v>2370273430.8386</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1080535911211566</v>
+        <v>0.07944824920999274</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04850440401215403</v>
+        <v>0.03929740016915413</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1124266845.072044</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2557472264.897855</v>
+        <v>3302627092.687821</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1372200619848545</v>
+        <v>0.1520808980870777</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04684402185175916</v>
+        <v>0.04946706463036479</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>56</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1278736143.726637</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2558014024.780284</v>
+        <v>2574332316.761136</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1427726819087249</v>
+        <v>0.1664627608570601</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01723505121274595</v>
+        <v>0.01689666019139015</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>17</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1279007117.588431</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1441567706.651796</v>
+        <v>1072514841.53579</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1648937049888003</v>
+        <v>0.1421366727981241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04308997322542522</v>
+        <v>0.03671030049604715</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>720783970.790771</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2383645090.63807</v>
+        <v>3650560207.487949</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1111803078961496</v>
+        <v>0.1199955652551657</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03718620030401742</v>
+        <v>0.03773548695289091</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>59</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1191822514.824334</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3027241100.448393</v>
+        <v>3484733578.610316</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1454143983423685</v>
+        <v>0.0966184989680033</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03816588957734787</v>
+        <v>0.03351798578612927</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1513620586.291169</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1416571561.827699</v>
+        <v>1591699091.860005</v>
       </c>
       <c r="F90" t="n">
-        <v>0.119236207140758</v>
+        <v>0.1310105597626446</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05217367376235241</v>
+        <v>0.05532712576024136</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>708285744.3364978</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1481252612.704748</v>
+        <v>1697281998.006662</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1299344155309699</v>
+        <v>0.1894978788030076</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04650817716513155</v>
+        <v>0.04881715072347025</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>740626347.734598</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2808192852.04532</v>
+        <v>2727001809.330948</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09550539282512252</v>
+        <v>0.08193428128362022</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03343321481361883</v>
+        <v>0.03655559298136762</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>34</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1404096433.204585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4407175660.625929</v>
+        <v>4403601942.058837</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1281497178477804</v>
+        <v>0.09445084238300398</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04370936005166328</v>
+        <v>0.0539030077609088</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2203587804.544747</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1577373598.579729</v>
+        <v>2027625523.990342</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1018868639992723</v>
+        <v>0.1672277205647894</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03079829252254584</v>
+        <v>0.0309406632121407</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>788686742.6004235</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2093953761.706613</v>
+        <v>2351023639.977998</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1072254711930201</v>
+        <v>0.09962057962467392</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05189829980472822</v>
+        <v>0.03521005384757359</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>36</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1046976946.435657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1879204742.658132</v>
+        <v>1688736742.797619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1186312091551892</v>
+        <v>0.1168014799067246</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03520166659617999</v>
+        <v>0.03259458692280422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>939602371.1745729</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4510157142.466502</v>
+        <v>4938147392.935767</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075268469504359</v>
+        <v>0.1136698990005893</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02696766427642044</v>
+        <v>0.02725031750843501</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>49</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2255078668.603043</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2405466761.868012</v>
+        <v>3223272037.460181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1009337570169945</v>
+        <v>0.1094790459377529</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02403166960233114</v>
+        <v>0.03053278949635109</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1202733325.275359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3338671153.233999</v>
+        <v>2774200252.049291</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1424147055433232</v>
+        <v>0.1235143340422345</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02366443986927257</v>
+        <v>0.02911440545317622</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>47</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1669335587.114025</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3966598842.918103</v>
+        <v>2963070065.375668</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1362568295796427</v>
+        <v>0.1702106652784439</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02698365563403657</v>
+        <v>0.02769537869991766</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>46</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1983299489.416777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2369813957.845444</v>
+        <v>2896375270.323188</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1906886900687478</v>
+        <v>0.1414357742510296</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04050040030319164</v>
+        <v>0.05284725848919698</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>62</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1184906984.644749</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_150.xlsx
+++ b/output/fit_clients/fit_round_150.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2397967555.563449</v>
+        <v>2205616128.139235</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09974958392083669</v>
+        <v>0.1028637850882419</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03890803079377907</v>
+        <v>0.03837818517468755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1618381152.584536</v>
+        <v>2370411254.395381</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1210874002496674</v>
+        <v>0.1320607335495473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03042786216877456</v>
+        <v>0.03840101873678343</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3662998283.196155</v>
+        <v>4226642258.733202</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1283202772075203</v>
+        <v>0.1640990519324975</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02497857318741796</v>
+        <v>0.03026248694569908</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2562733077.345811</v>
+        <v>2935808922.91235</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1061091426770239</v>
+        <v>0.109332640821207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04177436808592894</v>
+        <v>0.04065266503812449</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1903475504.6612</v>
+        <v>1989599901.498669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1274739506742506</v>
+        <v>0.117228228694295</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05193290830479533</v>
+        <v>0.04983696846678294</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1948314965.675312</v>
+        <v>2697622147.225677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09813747169669215</v>
+        <v>0.08510903308086236</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04931208091502723</v>
+        <v>0.03560962312211512</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3859134700.021836</v>
+        <v>3392833924.695158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.199075850322814</v>
+        <v>0.1956685407684376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02529598564333425</v>
+        <v>0.03284560793221711</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1577067449.42231</v>
+        <v>1917642859.569666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1284453330987883</v>
+        <v>0.1334547085782658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0325843307540702</v>
+        <v>0.03133727471507115</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5149163801.828417</v>
+        <v>4556145837.10979</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1976533734283812</v>
+        <v>0.1879808543918355</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04585910399730017</v>
+        <v>0.05166129406266992</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3806009551.952093</v>
+        <v>3227416780.885028</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1715778182583295</v>
+        <v>0.1719920544573054</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03850021598520408</v>
+        <v>0.03651631139182599</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2754135177.094543</v>
+        <v>2514682448.366574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1220129801658811</v>
+        <v>0.1391814240563906</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05212559880304021</v>
+        <v>0.04060715571497768</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4272909465.391653</v>
+        <v>5194090398.144933</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09366615309525564</v>
+        <v>0.07981248109774169</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02044474990594526</v>
+        <v>0.02807555703043342</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3061773618.681144</v>
+        <v>2600185310.110635</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1480896754219052</v>
+        <v>0.1843748481949594</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04042414760307653</v>
+        <v>0.03407582872409578</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1480377467.266444</v>
+        <v>1311861805.86063</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1048629428771443</v>
+        <v>0.08168148496358257</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03144664778352747</v>
+        <v>0.03373440200891221</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2324038794.985009</v>
+        <v>2533795626.596651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09445188660932613</v>
+        <v>0.08714732721721977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04308296268146718</v>
+        <v>0.03381826994515923</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3603191514.039171</v>
+        <v>3818325456.420554</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1543260795091195</v>
+        <v>0.1607238882911659</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03752609479844695</v>
+        <v>0.04974253559097726</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2584744062.479763</v>
+        <v>3842331232.183552</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1661973643064726</v>
+        <v>0.1207354419586912</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03360952174547998</v>
+        <v>0.03138809632327619</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1185933288.146824</v>
+        <v>1056367041.038623</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1353289766180136</v>
+        <v>0.1398057832845547</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02696862100705555</v>
+        <v>0.02259432911021961</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2013617876.627187</v>
+        <v>2031295284.736254</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1291852633353628</v>
+        <v>0.1012987596995693</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03074124676752716</v>
+        <v>0.02560334414870231</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1899923509.376549</v>
+        <v>1942651730.564501</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07408710410227783</v>
+        <v>0.09129482937100394</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04098039344795153</v>
+        <v>0.04502884677858007</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2649832964.019991</v>
+        <v>2730095727.015547</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1209529609802956</v>
+        <v>0.1206822059841949</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03869729026423986</v>
+        <v>0.04019141168771882</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>996300549.1300129</v>
+        <v>1383592151.170229</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1790453138236012</v>
+        <v>0.1301536544247439</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05124636407303194</v>
+        <v>0.03616290097394144</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4142208101.939357</v>
+        <v>2742175039.870748</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1230832961235194</v>
+        <v>0.09918287519038797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02471132881046158</v>
+        <v>0.03269656208926335</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1308041618.906046</v>
+        <v>1085415487.318038</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1155060314342172</v>
+        <v>0.1125609874667757</v>
       </c>
       <c r="G25" t="n">
-        <v>0.019882624315754</v>
+        <v>0.01876783003070335</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1105627431.63293</v>
+        <v>1198647284.417455</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1231255939442419</v>
+        <v>0.07695172725439325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02908373468670247</v>
+        <v>0.03836381960557157</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2865116238.496995</v>
+        <v>3623337469.690101</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1037215360878036</v>
+        <v>0.1283196120383765</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02358136740355485</v>
+        <v>0.01673888609185609</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3476898706.958834</v>
+        <v>3475936068.939872</v>
       </c>
       <c r="F28" t="n">
-        <v>0.139265552444916</v>
+        <v>0.1041977032931658</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03862815903777397</v>
+        <v>0.03661748706691829</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3683193726.267483</v>
+        <v>4689193710.36985</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1457115100615667</v>
+        <v>0.1148256620757903</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04335858671173988</v>
+        <v>0.04658799200066372</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1514446678.660927</v>
+        <v>1583732293.053435</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113332690751266</v>
+        <v>0.1243184387105009</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03391272737423342</v>
+        <v>0.03636427440052512</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>977656608.6172833</v>
+        <v>1222449639.63255</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1076323006038569</v>
+        <v>0.09493808677505473</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04826156966489906</v>
+        <v>0.0318337704653319</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1849325582.273532</v>
+        <v>1307214185.508018</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08995825871411497</v>
+        <v>0.07311337099771295</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03014471623808482</v>
+        <v>0.02851090394875645</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2052967493.439047</v>
+        <v>2425924982.752559</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1602175390163083</v>
+        <v>0.1578075105463943</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04598042723223232</v>
+        <v>0.04927960452890401</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1114941864.820125</v>
+        <v>1021973382.057217</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1110662847760715</v>
+        <v>0.0785952925342252</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02582810667085772</v>
+        <v>0.02139956181755582</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332231624.218555</v>
+        <v>1331383839.167087</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1101418155641473</v>
+        <v>0.08480819694477706</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0315699933335773</v>
+        <v>0.03417599629065104</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3194173001.932174</v>
+        <v>2788431591.770352</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1545945044843409</v>
+        <v>0.16450847881523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02632609473877443</v>
+        <v>0.02835709530051486</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2673651151.472854</v>
+        <v>2795738645.186337</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07726388061654856</v>
+        <v>0.07261038647426864</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03267862292283313</v>
+        <v>0.03915579611199486</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2108107129.961226</v>
+        <v>1770194015.092243</v>
       </c>
       <c r="F38" t="n">
-        <v>0.111030541635132</v>
+        <v>0.09878766470495934</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02947036478185166</v>
+        <v>0.03907066035464503</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1538527452.826429</v>
+        <v>2154155773.257493</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1540620080404242</v>
+        <v>0.1555036335307239</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02106983196011924</v>
+        <v>0.03138385875355547</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1569035450.146925</v>
+        <v>1342389027.964923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12811807776927</v>
+        <v>0.1113760726405554</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05833050932746237</v>
+        <v>0.03787353129025788</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1975885226.902157</v>
+        <v>1938614156.890287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1105558496807758</v>
+        <v>0.1596990967310769</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03130764083063026</v>
+        <v>0.04514060299164478</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3494247039.315402</v>
+        <v>3927452229.747823</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1006903754089851</v>
+        <v>0.07890965346032222</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02924605008578234</v>
+        <v>0.04387065126461599</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1966370535.245308</v>
+        <v>2241132867.497492</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1345906806503301</v>
+        <v>0.1630054909927313</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02569292904738099</v>
+        <v>0.022547246213586</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1805125471.232388</v>
+        <v>2251978583.26583</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06224697382823756</v>
+        <v>0.1028420765026055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02413278192942721</v>
+        <v>0.03009235494082005</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2325525972.16937</v>
+        <v>1990222483.681457</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1497836757011315</v>
+        <v>0.1679559163185944</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0379320693779853</v>
+        <v>0.0520292763603848</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4704958176.422903</v>
+        <v>4890759766.985496</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1085371940902258</v>
+        <v>0.163994318228941</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05834734299921254</v>
+        <v>0.04795791532175737</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4195150867.111307</v>
+        <v>5003320843.218498</v>
       </c>
       <c r="F47" t="n">
-        <v>0.128301965318921</v>
+        <v>0.1765879883678928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04235919883718998</v>
+        <v>0.03911433336200226</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2926946094.104791</v>
+        <v>4448202951.145603</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1063883072416416</v>
+        <v>0.07516868826510517</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03922995552146434</v>
+        <v>0.03287397680984035</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1240987990.976986</v>
+        <v>1450200823.75656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1404499439766677</v>
+        <v>0.1315151156936608</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03857597342661691</v>
+        <v>0.04053760203424376</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3831881382.175144</v>
+        <v>3637482770.532929</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1491382474021144</v>
+        <v>0.1605223365858678</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03651142071261167</v>
+        <v>0.04505317172147752</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1022584204.021384</v>
+        <v>1153644022.208648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1312968968503844</v>
+        <v>0.1819705418009669</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05239602015233887</v>
+        <v>0.04599038975577872</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5232701205.828031</v>
+        <v>3356712697.996817</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1193669609960923</v>
+        <v>0.1106101618852262</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04314871798441503</v>
+        <v>0.04132802026698624</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3493131695.828571</v>
+        <v>2472141502.296024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.172672064449925</v>
+        <v>0.1608986649295091</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02592781883575727</v>
+        <v>0.0348207998919565</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4859141506.47928</v>
+        <v>3630976442.945883</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1380103661534925</v>
+        <v>0.1545820253833801</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03995908511982114</v>
+        <v>0.03440188519176546</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4054051209.919249</v>
+        <v>3811355572.063762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1688780777745702</v>
+        <v>0.1716020233046532</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312384958692097</v>
+        <v>0.03166251154647839</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1194138631.972835</v>
+        <v>1493985517.527585</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1432194808012636</v>
+        <v>0.140446372776301</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03932527591464464</v>
+        <v>0.05459496280321947</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2827684972.631013</v>
+        <v>2883352898.143398</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1358655554829508</v>
+        <v>0.1582260558703972</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01930849770986056</v>
+        <v>0.02536281954562626</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1722769709.759595</v>
+        <v>1598730461.253286</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1615708896601926</v>
+        <v>0.1954251948808838</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03242338305766058</v>
+        <v>0.03794483919623171</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4405678781.072598</v>
+        <v>3665509565.305173</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1202171883227791</v>
+        <v>0.129873488520359</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04362462618050302</v>
+        <v>0.04111827055607756</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3108034440.486827</v>
+        <v>3398750308.461322</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1487685324818679</v>
+        <v>0.150365959309616</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02800412229919989</v>
+        <v>0.02703205914219319</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2310970276.766858</v>
+        <v>2556872811.809927</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160810199261708</v>
+        <v>0.1641333936482915</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03088306899450256</v>
+        <v>0.02687863816915967</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1491862168.101478</v>
+        <v>2036529722.031054</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1437503149183485</v>
+        <v>0.1241062654657072</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04719507441424003</v>
+        <v>0.03620287095018273</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4370080102.988783</v>
+        <v>5479397524.344183</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09612260647444176</v>
+        <v>0.09751400062083933</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04229365745613338</v>
+        <v>0.0457846489881823</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4018959513.163591</v>
+        <v>4137041720.002888</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1157845640766411</v>
+        <v>0.1785981460945242</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03168962658951852</v>
+        <v>0.02824134452596523</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5522260958.733263</v>
+        <v>3939335778.749685</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1410829623508565</v>
+        <v>0.1372560313629215</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02935536900242532</v>
+        <v>0.02116498376414158</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5459853081.943007</v>
+        <v>4763268385.992712</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1069507246326474</v>
+        <v>0.1485750098486947</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03476000559438985</v>
+        <v>0.03881474217139571</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3355330763.434894</v>
+        <v>2138868723.366758</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06309450561305026</v>
+        <v>0.1027138579093069</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04848810314357131</v>
+        <v>0.04539748411291272</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4365063451.814483</v>
+        <v>4161869293.647341</v>
       </c>
       <c r="F68" t="n">
-        <v>0.125451279237985</v>
+        <v>0.1370895639592225</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04271703272939748</v>
+        <v>0.04164155499149301</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2373352944.957045</v>
+        <v>1642332053.692993</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1542405265299806</v>
+        <v>0.1540102865782211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05365665801265709</v>
+        <v>0.05622724988171234</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2985548774.675671</v>
+        <v>2961478009.438876</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08898006276725516</v>
+        <v>0.07501505763329223</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03366238888298482</v>
+        <v>0.04335698137000239</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5335818747.866567</v>
+        <v>4926572911.560699</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1400956461242992</v>
+        <v>0.1455525677912935</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02329350938149889</v>
+        <v>0.03304251785685966</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1455790323.692654</v>
+        <v>1888196066.287267</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1001133689149115</v>
+        <v>0.08699604839113756</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03769398036731681</v>
+        <v>0.04406005106107914</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3475747057.046237</v>
+        <v>3375857827.437583</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07701916055857186</v>
+        <v>0.1000774363526109</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04628770964251507</v>
+        <v>0.03335844810313311</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3390878437.850467</v>
+        <v>3741772545.999703</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1652055403981041</v>
+        <v>0.1178797606603522</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02210698884494039</v>
+        <v>0.03154681695283034</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1908588612.926043</v>
+        <v>1889715946.600447</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1199106781872731</v>
+        <v>0.1429919218229934</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03783925505671482</v>
+        <v>0.02283904503045757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3505262815.327251</v>
+        <v>4998361519.968195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1139806467664362</v>
+        <v>0.09526600045898026</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02615277811422922</v>
+        <v>0.02066463923802394</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1918198865.195156</v>
+        <v>2204792346.173865</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1698180322195952</v>
+        <v>0.1588592067979559</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02206672259109257</v>
+        <v>0.02631808324269784</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3887875003.383219</v>
+        <v>4525717948.531019</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1159480507343854</v>
+        <v>0.1180400569697158</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05476639586496009</v>
+        <v>0.0519771873144837</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1280590203.125702</v>
+        <v>1782120203.904827</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142826761115499</v>
+        <v>0.1136760578190786</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02583037904785181</v>
+        <v>0.02985321281343449</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3982404446.456594</v>
+        <v>4721777015.998134</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07965577867624432</v>
+        <v>0.0965315040133003</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03523713116641797</v>
+        <v>0.02853797760264672</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4384516502.466395</v>
+        <v>4125997115.289483</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09175565879549692</v>
+        <v>0.09480450436164377</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03157461026042079</v>
+        <v>0.02459495484194835</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4536409925.479704</v>
+        <v>4962355727.980416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.198210629824738</v>
+        <v>0.2010187260010557</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02251819560374736</v>
+        <v>0.02016351428800106</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2133581788.762385</v>
+        <v>1857109641.761757</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09870748628007601</v>
+        <v>0.14106160854463</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02778847876833074</v>
+        <v>0.02871196077494536</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2370273430.8386</v>
+        <v>2092335512.59268</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07944824920999274</v>
+        <v>0.08641100875976097</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03929740016915413</v>
+        <v>0.04844576236114456</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3302627092.687821</v>
+        <v>2514633305.073139</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1520808980870777</v>
+        <v>0.1304270075674224</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04946706463036479</v>
+        <v>0.04680221628737227</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2574332316.761136</v>
+        <v>1921922737.298983</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1664627608570601</v>
+        <v>0.1617032357668418</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01689666019139015</v>
+        <v>0.02360982954069153</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1072514841.53579</v>
+        <v>1477154031.151317</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1421366727981241</v>
+        <v>0.1746644666011627</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03671030049604715</v>
+        <v>0.02785266097123063</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3650560207.487949</v>
+        <v>2603559774.742968</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1199955652551657</v>
+        <v>0.1143486774248684</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03773548695289091</v>
+        <v>0.03552710002841727</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3484733578.610316</v>
+        <v>2882071131.76348</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0966184989680033</v>
+        <v>0.1266279597392589</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03351798578612927</v>
+        <v>0.0333911715507614</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1591699091.860005</v>
+        <v>2146003651.588137</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1310105597626446</v>
+        <v>0.0916940737319995</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05532712576024136</v>
+        <v>0.04357830260965583</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1697281998.006662</v>
+        <v>1537098520.713823</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1894978788030076</v>
+        <v>0.1399519699303001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04881715072347025</v>
+        <v>0.04508610158377109</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2727001809.330948</v>
+        <v>2569467320.506269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08193428128362022</v>
+        <v>0.09769437762085005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03655559298136762</v>
+        <v>0.03769931734885007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4403601942.058837</v>
+        <v>3980129555.468377</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09445084238300398</v>
+        <v>0.1146339851743687</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0539030077609088</v>
+        <v>0.03387998559011367</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2027625523.990342</v>
+        <v>2089397167.68965</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1672277205647894</v>
+        <v>0.1332560519528846</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0309406632121407</v>
+        <v>0.03892550176819485</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2351023639.977998</v>
+        <v>3028270632.615421</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09962057962467392</v>
+        <v>0.1314885509593615</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03521005384757359</v>
+        <v>0.04073411358624621</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1688736742.797619</v>
+        <v>1769027126.100098</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1168014799067246</v>
+        <v>0.1183153257271545</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03259458692280422</v>
+        <v>0.03999466695989345</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4938147392.935767</v>
+        <v>3390619636.07229</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1136698990005893</v>
+        <v>0.1622655690191619</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02725031750843501</v>
+        <v>0.02597708749473554</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3223272037.460181</v>
+        <v>2467429019.13013</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1094790459377529</v>
+        <v>0.07864818505143606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03053278949635109</v>
+        <v>0.02435510386689668</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2774200252.049291</v>
+        <v>2963046965.684485</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235143340422345</v>
+        <v>0.1237432518493537</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02911440545317622</v>
+        <v>0.02401966036709288</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2963070065.375668</v>
+        <v>4245466858.69588</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1702106652784439</v>
+        <v>0.1082186062028604</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02769537869991766</v>
+        <v>0.02445769711210863</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2896375270.323188</v>
+        <v>2712406762.956744</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1414357742510296</v>
+        <v>0.2016230864465292</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05284725848919698</v>
+        <v>0.0460657394842891</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_150.xlsx
+++ b/output/fit_clients/fit_round_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2205616128.139235</v>
+        <v>1632093087.70582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1028637850882419</v>
+        <v>0.09842687511539494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03837818517468755</v>
+        <v>0.0390375305205587</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370411254.395381</v>
+        <v>1602925798.409776</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1320607335495473</v>
+        <v>0.1526092870623393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03840101873678343</v>
+        <v>0.04853646319245722</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4226642258.733202</v>
+        <v>3403700944.833045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1640990519324975</v>
+        <v>0.1425370101070627</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03026248694569908</v>
+        <v>0.03205377535107043</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>148</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2935808922.91235</v>
+        <v>3925445529.439433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109332640821207</v>
+        <v>0.08170135580766495</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04065266503812449</v>
+        <v>0.04945040019046874</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="n">
+        <v>155.1039460897433</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1989599901.498669</v>
+        <v>2796026465.495998</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117228228694295</v>
+        <v>0.1256733654213901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04983696846678294</v>
+        <v>0.03797044558385449</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2697622147.225677</v>
+        <v>2518765367.996163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08510903308086236</v>
+        <v>0.09516712846918919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03560962312211512</v>
+        <v>0.03875420862640957</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3392833924.695158</v>
+        <v>2965836177.68698</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1956685407684376</v>
+        <v>0.2197658244907125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03284560793221711</v>
+        <v>0.03180442279721643</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>144</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1917642859.569666</v>
+        <v>1615422188.56793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1334547085782658</v>
+        <v>0.1855872742394668</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03133727471507115</v>
+        <v>0.03300544993754911</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4556145837.10979</v>
+        <v>4518173679.345518</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1879808543918355</v>
+        <v>0.1445070772663183</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05166129406266992</v>
+        <v>0.05005231037146544</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>138</v>
+      </c>
+      <c r="J10" t="n">
+        <v>150</v>
+      </c>
+      <c r="K10" t="n">
+        <v>152.4169366668852</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3227416780.885028</v>
+        <v>3899239247.572145</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1719920544573054</v>
+        <v>0.1592293282989417</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03651631139182599</v>
+        <v>0.0307893840937454</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="n">
+        <v>146.6265064207609</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2514682448.366574</v>
+        <v>3255005841.104525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1391814240563906</v>
+        <v>0.1609830404340418</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04060715571497768</v>
+        <v>0.03846514378435117</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5194090398.144933</v>
+        <v>4128072191.39183</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07981248109774169</v>
+        <v>0.06219292106257587</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02807555703043342</v>
+        <v>0.02312457754308112</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>72</v>
+      </c>
+      <c r="J13" t="n">
+        <v>150</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2600185310.110635</v>
+        <v>3416573706.478412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1843748481949594</v>
+        <v>0.1857150838938539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03407582872409578</v>
+        <v>0.04011400725942991</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>149</v>
+      </c>
+      <c r="K14" t="n">
+        <v>102.1302968857583</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1311861805.86063</v>
+        <v>1685533719.892242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08168148496358257</v>
+        <v>0.1004310059838866</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03373440200891221</v>
+        <v>0.03948479608836072</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2533795626.596651</v>
+        <v>2720200226.329528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08714732721721977</v>
+        <v>0.09720738597465473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03381826994515923</v>
+        <v>0.0347819722313707</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3818325456.420554</v>
+        <v>4362798920.814067</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1607238882911659</v>
+        <v>0.16445513821167</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04974253559097726</v>
+        <v>0.04812091673854996</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3842331232.183552</v>
+        <v>2671672730.693756</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1207354419586912</v>
+        <v>0.1679187865365837</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03138809632327619</v>
+        <v>0.0217456854010311</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>143</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1056367041.038623</v>
+        <v>1137249174.678688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1398057832845547</v>
+        <v>0.1258370225431826</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02259432911021961</v>
+        <v>0.01887819608862601</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2031295284.736254</v>
+        <v>2557892543.307502</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1012987596995693</v>
+        <v>0.156747595835724</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02560334414870231</v>
+        <v>0.02191912108936913</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1942651730.564501</v>
+        <v>2091948064.264365</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09129482937100394</v>
+        <v>0.08934544370049259</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04502884677858007</v>
+        <v>0.04467007500997096</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2730095727.015547</v>
+        <v>3642971640.104227</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1206822059841949</v>
+        <v>0.1411440062432761</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04019141168771882</v>
+        <v>0.05076598105433226</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>146</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1383592151.170229</v>
+        <v>1055225575.906305</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1301536544247439</v>
+        <v>0.1861123631043293</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03616290097394144</v>
+        <v>0.04976753540464602</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2742175039.870748</v>
+        <v>2541748236.975855</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09918287519038797</v>
+        <v>0.1039010021088219</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03269656208926335</v>
+        <v>0.03131234687927388</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44</v>
+      </c>
+      <c r="J24" t="n">
+        <v>149</v>
+      </c>
+      <c r="K24" t="n">
+        <v>53.18373810621159</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1085415487.318038</v>
+        <v>1107727217.010162</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1125609874667757</v>
+        <v>0.09221405645744389</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01876783003070335</v>
+        <v>0.02713541897373106</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1198647284.417455</v>
+        <v>939710412.0443184</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07695172725439325</v>
+        <v>0.1224871324403789</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03836381960557157</v>
+        <v>0.02508165276539438</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3623337469.690101</v>
+        <v>4304722534.26602</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1283196120383765</v>
+        <v>0.1425890823802602</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01673888609185609</v>
+        <v>0.02661763860901421</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>59</v>
+      </c>
+      <c r="J27" t="n">
+        <v>149</v>
+      </c>
+      <c r="K27" t="n">
+        <v>116.6078750009695</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3475936068.939872</v>
+        <v>2658072833.23679</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1041977032931658</v>
+        <v>0.1038677930169657</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03661748706691829</v>
+        <v>0.03528076170339874</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4689193710.36985</v>
+        <v>5332560454.565836</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1148256620757903</v>
+        <v>0.1176422453768213</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04658799200066372</v>
+        <v>0.03864572063714476</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>139</v>
+      </c>
+      <c r="J29" t="n">
+        <v>150</v>
+      </c>
+      <c r="K29" t="n">
+        <v>162.9776177890236</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1583732293.053435</v>
+        <v>1781951303.955197</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1243184387105009</v>
+        <v>0.1334975157036722</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03636427440052512</v>
+        <v>0.03207173684933037</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1222449639.63255</v>
+        <v>1294440645.969027</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09493808677505473</v>
+        <v>0.08638212637180001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0318337704653319</v>
+        <v>0.03970120668961413</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1307214185.508018</v>
+        <v>1632886073.185446</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07311337099771295</v>
+        <v>0.1023281013253424</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02851090394875645</v>
+        <v>0.02806429362228788</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2425924982.752559</v>
+        <v>2418413728.126626</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1578075105463943</v>
+        <v>0.2006174996048226</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04927960452890401</v>
+        <v>0.04222272089392878</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1021973382.057217</v>
+        <v>1511482809.17666</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785952925342252</v>
+        <v>0.08120224798481836</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02139956181755582</v>
+        <v>0.02141755508564446</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1331383839.167087</v>
+        <v>1245655813.300613</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08480819694477706</v>
+        <v>0.07231517431138915</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03417599629065104</v>
+        <v>0.0331461158275026</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2788431591.770352</v>
+        <v>2606269528.432926</v>
       </c>
       <c r="F36" t="n">
-        <v>0.16450847881523</v>
+        <v>0.1667656006408631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02835709530051486</v>
+        <v>0.02175343839436064</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2795738645.186337</v>
+        <v>2645503235.799039</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07261038647426864</v>
+        <v>0.06849113395021171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03915579611199486</v>
+        <v>0.04091799423130168</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770194015.092243</v>
+        <v>2029970895.50757</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09878766470495934</v>
+        <v>0.0856024270244428</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03907066035464503</v>
+        <v>0.03537710479169764</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2154155773.257493</v>
+        <v>1933157008.668265</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1555036335307239</v>
+        <v>0.1803959078409069</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03138385875355547</v>
+        <v>0.02096925424736027</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1342389027.964923</v>
+        <v>1517422811.091757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1113760726405554</v>
+        <v>0.1581670610966826</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03787353129025788</v>
+        <v>0.03686716990579995</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1938614156.890287</v>
+        <v>2132804418.045381</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1596990967310769</v>
+        <v>0.1453018311980042</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04514060299164478</v>
+        <v>0.04373997514833099</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3927452229.747823</v>
+        <v>4112009367.3455</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07890965346032222</v>
+        <v>0.08739573878447872</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04387065126461599</v>
+        <v>0.03420240292551796</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>54</v>
+      </c>
+      <c r="J42" t="n">
+        <v>150</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2241132867.497492</v>
+        <v>2325736973.431383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1630054909927313</v>
+        <v>0.1671796341710423</v>
       </c>
       <c r="G43" t="n">
-        <v>0.022547246213586</v>
+        <v>0.01929124636645694</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2251978583.26583</v>
+        <v>2150965139.171182</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1028420765026055</v>
+        <v>0.08665481406752965</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03009235494082005</v>
+        <v>0.03539705554751319</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1990222483.681457</v>
+        <v>1941057478.631938</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1679559163185944</v>
+        <v>0.1654087940996375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0520292763603848</v>
+        <v>0.03889487775340135</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4890759766.985496</v>
+        <v>4564748551.47122</v>
       </c>
       <c r="F46" t="n">
-        <v>0.163994318228941</v>
+        <v>0.1144399360567538</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04795791532175737</v>
+        <v>0.05853251523665066</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>150</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5003320843.218498</v>
+        <v>4958789718.884727</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1765879883678928</v>
+        <v>0.2027945122110168</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03911433336200226</v>
+        <v>0.05702714033635432</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>67</v>
+      </c>
+      <c r="J47" t="n">
+        <v>149</v>
+      </c>
+      <c r="K47" t="n">
+        <v>113.5057443388842</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4448202951.145603</v>
+        <v>3853075277.229033</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07516868826510517</v>
+        <v>0.09224928352922176</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03287397680984035</v>
+        <v>0.03661825384300142</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>149</v>
+      </c>
+      <c r="K48" t="n">
+        <v>137.349120590305</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1450200823.75656</v>
+        <v>1342515772.678375</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1315151156936608</v>
+        <v>0.1459390060642005</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04053760203424376</v>
+        <v>0.03879760851669001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3637482770.532929</v>
+        <v>3560201983.713904</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1605223365858678</v>
+        <v>0.1284349717612123</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04505317172147752</v>
+        <v>0.05035124724232267</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
+      <c r="J50" t="n">
+        <v>147</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1153644022.208648</v>
+        <v>1392706674.781107</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1819705418009669</v>
+        <v>0.159983204460942</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04599038975577872</v>
+        <v>0.04418055547303248</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3356712697.996817</v>
+        <v>4137693134.894008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1106101618852262</v>
+        <v>0.1137208250258371</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04132802026698624</v>
+        <v>0.05492709221927332</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>111</v>
+      </c>
+      <c r="J52" t="n">
+        <v>149</v>
+      </c>
+      <c r="K52" t="n">
+        <v>139.9328711751958</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2472141502.296024</v>
+        <v>2499524684.79208</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1608986649295091</v>
+        <v>0.1485656988111357</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0348207998919565</v>
+        <v>0.02286848571756407</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>19</v>
+      </c>
+      <c r="J53" t="n">
+        <v>148</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3630976442.945883</v>
+        <v>3606575364.635875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1545820253833801</v>
+        <v>0.1044135757234879</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03440188519176546</v>
+        <v>0.03807441597443473</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>71</v>
+      </c>
+      <c r="J54" t="n">
+        <v>149</v>
+      </c>
+      <c r="K54" t="n">
+        <v>120.0533807079771</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3811355572.063762</v>
+        <v>3864745199.478786</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1716020233046532</v>
+        <v>0.1371806736177862</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03166251154647839</v>
+        <v>0.03048119556208163</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>69</v>
+      </c>
+      <c r="J55" t="n">
+        <v>149</v>
+      </c>
+      <c r="K55" t="n">
+        <v>126.3117680321148</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1493985517.527585</v>
+        <v>1217973124.645182</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140446372776301</v>
+        <v>0.1317346520732821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05459496280321947</v>
+        <v>0.03636830259416838</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2883352898.143398</v>
+        <v>4121840844.077003</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1582260558703972</v>
+        <v>0.1580853948326032</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02536281954562626</v>
+        <v>0.02040971577179988</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>61</v>
+      </c>
+      <c r="J57" t="n">
+        <v>149</v>
+      </c>
+      <c r="K57" t="n">
+        <v>133.88412792292</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1598730461.253286</v>
+        <v>1240124659.266871</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1954251948808838</v>
+        <v>0.201028385823801</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03794483919623171</v>
+        <v>0.03230151618340298</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3665509565.305173</v>
+        <v>3343857240.749954</v>
       </c>
       <c r="F59" t="n">
-        <v>0.129873488520359</v>
+        <v>0.09179344459974828</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04111827055607756</v>
+        <v>0.04744323997430074</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>73</v>
+      </c>
+      <c r="J59" t="n">
+        <v>149</v>
+      </c>
+      <c r="K59" t="n">
+        <v>93.33682211525225</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3398750308.461322</v>
+        <v>3683485892.323197</v>
       </c>
       <c r="F60" t="n">
-        <v>0.150365959309616</v>
+        <v>0.1861312667782123</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02703205914219319</v>
+        <v>0.02739215444157523</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2556872811.809927</v>
+        <v>2830202088.104053</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1641333936482915</v>
+        <v>0.1719746355957139</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02687863816915967</v>
+        <v>0.0234917668104329</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2036529722.031054</v>
+        <v>1294340198.62176</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1241062654657072</v>
+        <v>0.1429082527449894</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03620287095018273</v>
+        <v>0.04940476601909016</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2664,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5479397524.344183</v>
+        <v>4083544834.398057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09751400062083933</v>
+        <v>0.1005385533494985</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0457846489881823</v>
+        <v>0.04421490685136292</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>73</v>
+      </c>
+      <c r="J63" t="n">
+        <v>150</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4137041720.002888</v>
+        <v>4450779326.785053</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1785981460945242</v>
+        <v>0.1471209202236541</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02824134452596523</v>
+        <v>0.02430803677749517</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>74</v>
+      </c>
+      <c r="J64" t="n">
+        <v>150</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3939335778.749685</v>
+        <v>3653502526.929605</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1372560313629215</v>
+        <v>0.1631300419573622</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02116498376414158</v>
+        <v>0.02192024343313946</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>124</v>
+      </c>
+      <c r="J65" t="n">
+        <v>150</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4763268385.992712</v>
+        <v>5611222879.924751</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1485750098486947</v>
+        <v>0.1342472987366099</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03881474217139571</v>
+        <v>0.03260453262865176</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>74</v>
+      </c>
+      <c r="J66" t="n">
+        <v>149</v>
+      </c>
+      <c r="K66" t="n">
+        <v>128.9088930643036</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138868723.366758</v>
+        <v>3017607403.107793</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1027138579093069</v>
+        <v>0.06590543911853133</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04539748411291272</v>
+        <v>0.04191423392360751</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4161869293.647341</v>
+        <v>4042356964.483066</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1370895639592225</v>
+        <v>0.1206157423836195</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04164155499149301</v>
+        <v>0.04777850849708343</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>75</v>
+      </c>
+      <c r="J68" t="n">
+        <v>150</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1642332053.692993</v>
+        <v>1793883660.762792</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1540102865782211</v>
+        <v>0.1392486452907093</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05622724988171234</v>
+        <v>0.04715197786159171</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2961478009.438876</v>
+        <v>3499733869.087316</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07501505763329223</v>
+        <v>0.08781259132318397</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04335698137000239</v>
+        <v>0.03255635596257747</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4926572911.560699</v>
+        <v>3530297563.138275</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1455525677912935</v>
+        <v>0.1467189785978179</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03304251785685966</v>
+        <v>0.02064364051347428</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>119</v>
+      </c>
+      <c r="J71" t="n">
+        <v>149</v>
+      </c>
+      <c r="K71" t="n">
+        <v>114.6088243178398</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1888196066.287267</v>
+        <v>1873269862.139418</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08699604839113756</v>
+        <v>0.0697496812960957</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04406005106107914</v>
+        <v>0.05280363149099414</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3375857827.437583</v>
+        <v>2977820162.731785</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1000774363526109</v>
+        <v>0.08977550191189868</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03335844810313311</v>
+        <v>0.04229026331748682</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3741772545.999703</v>
+        <v>3343698321.63309</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1178797606603522</v>
+        <v>0.1556775495412686</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03154681695283034</v>
+        <v>0.02817360623108505</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>142</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1889715946.600447</v>
+        <v>1947679936.659163</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1429919218229934</v>
+        <v>0.1167868992142746</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02283904503045757</v>
+        <v>0.03343702834204489</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4998361519.968195</v>
+        <v>4211667921.685562</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09526600045898026</v>
+        <v>0.09246110725078893</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02066463923802394</v>
+        <v>0.02885696542146228</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>68</v>
+      </c>
+      <c r="J76" t="n">
+        <v>150</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204792346.173865</v>
+        <v>1462385519.363385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1588592067979559</v>
+        <v>0.1295024303874899</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02631808324269784</v>
+        <v>0.02569358105864829</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4525717948.531019</v>
+        <v>3914034478.127261</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1180400569697158</v>
+        <v>0.1231723362286473</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0519771873144837</v>
+        <v>0.03759637375808023</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>75</v>
+      </c>
+      <c r="J78" t="n">
+        <v>150</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1782120203.904827</v>
+        <v>1189588055.056434</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1136760578190786</v>
+        <v>0.1327348024116241</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02985321281343449</v>
+        <v>0.02523557010481518</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4721777015.998134</v>
+        <v>4735567713.014568</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0965315040133003</v>
+        <v>0.07473985209399414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02853797760264672</v>
+        <v>0.02885290137892087</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>73</v>
+      </c>
+      <c r="J80" t="n">
+        <v>149</v>
+      </c>
+      <c r="K80" t="n">
+        <v>103.5131400509793</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4125997115.289483</v>
+        <v>3824764518.89011</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09480450436164377</v>
+        <v>0.09523302684772209</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02459495484194835</v>
+        <v>0.02191834101655901</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>68</v>
+      </c>
+      <c r="J81" t="n">
+        <v>150</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4962355727.980416</v>
+        <v>4404275721.953214</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2010187260010557</v>
+        <v>0.1777384420352986</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02016351428800106</v>
+        <v>0.02614189742663151</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>108</v>
+      </c>
+      <c r="J82" t="n">
+        <v>150</v>
+      </c>
+      <c r="K82" t="n">
+        <v>147.7012841055007</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1857109641.761757</v>
+        <v>2375030498.206019</v>
       </c>
       <c r="F83" t="n">
-        <v>0.14106160854463</v>
+        <v>0.1165787429799307</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02871196077494536</v>
+        <v>0.03026910017413943</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2092335512.59268</v>
+        <v>2519307496.420834</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08641100875976097</v>
+        <v>0.09809069506948824</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04844576236114456</v>
+        <v>0.0487487892196736</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2514633305.073139</v>
+        <v>2775346205.313346</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1304270075674224</v>
+        <v>0.169835018062941</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04680221628737227</v>
+        <v>0.04881226236227945</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1921922737.298983</v>
+        <v>1918402071.371289</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1617032357668418</v>
+        <v>0.150520957851266</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02360982954069153</v>
+        <v>0.02038075264461683</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1477154031.151317</v>
+        <v>1368847748.346053</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1746644666011627</v>
+        <v>0.1413063388765483</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02785266097123063</v>
+        <v>0.0416180958416528</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2603559774.742968</v>
+        <v>2307903770.749203</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1143486774248684</v>
+        <v>0.1597524177787852</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03552710002841727</v>
+        <v>0.03409354186062107</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>149</v>
+      </c>
+      <c r="K88" t="n">
+        <v>51.37839452080983</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2882071131.76348</v>
+        <v>3077074507.75233</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1266279597392589</v>
+        <v>0.1372376243528231</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0333911715507614</v>
+        <v>0.03411108500680255</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>12</v>
+      </c>
+      <c r="J89" t="n">
+        <v>146</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2146003651.588137</v>
+        <v>1756918872.852055</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0916940737319995</v>
+        <v>0.09403699923404768</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04357830260965583</v>
+        <v>0.05372745611162936</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1537098520.713823</v>
+        <v>1266347648.158582</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1399519699303001</v>
+        <v>0.1196822197888406</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04508610158377109</v>
+        <v>0.05243455228412193</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2569467320.506269</v>
+        <v>2990083869.67087</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09769437762085005</v>
+        <v>0.07701327862762118</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03769931734885007</v>
+        <v>0.03067190878947753</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3980129555.468377</v>
+        <v>4659232761.515152</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1146339851743687</v>
+        <v>0.1375116564356486</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03387998559011367</v>
+        <v>0.03344116797462669</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>67</v>
+      </c>
+      <c r="J93" t="n">
+        <v>150</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2089397167.68965</v>
+        <v>2424141683.598443</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1332560519528846</v>
+        <v>0.1322512746956978</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03892550176819485</v>
+        <v>0.03593435212953928</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3028270632.615421</v>
+        <v>2138197738.957811</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314885509593615</v>
+        <v>0.1356819292519189</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04073411358624621</v>
+        <v>0.04950891134024733</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1769027126.100098</v>
+        <v>2285712522.540702</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1183153257271545</v>
+        <v>0.1135555339623246</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03999466695989345</v>
+        <v>0.03504887571656198</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3390619636.07229</v>
+        <v>5205617622.454021</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1622655690191619</v>
+        <v>0.1712232592223254</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02597708749473554</v>
+        <v>0.02257254179068753</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>72</v>
+      </c>
+      <c r="J97" t="n">
+        <v>149</v>
+      </c>
+      <c r="K97" t="n">
+        <v>136.8517899974772</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2467429019.13013</v>
+        <v>3932590826.817881</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07864818505143606</v>
+        <v>0.1276218401172673</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02435510386689668</v>
+        <v>0.03089352112254078</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>35</v>
+      </c>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2963046965.684485</v>
+        <v>2193489140.570556</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1237432518493537</v>
+        <v>0.1198588495418599</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02401966036709288</v>
+        <v>0.02742978198430029</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4245466858.69588</v>
+        <v>3678583156.569895</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1082186062028604</v>
+        <v>0.1302643198509977</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02445769711210863</v>
+        <v>0.02081368912106875</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>62</v>
+      </c>
+      <c r="J100" t="n">
+        <v>150</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2712406762.956744</v>
+        <v>3570070222.656232</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2016230864465292</v>
+        <v>0.2212111128811718</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0460657394842891</v>
+        <v>0.03807527300382683</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
